--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1524.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1524.xlsx
@@ -354,10 +354,10 @@
         <v>1.812956376462279</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.069613693407033</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1524.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1524.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.18526920840571</v>
+        <v>2.156176328659058</v>
       </c>
       <c r="B1">
-        <v>1.812956376462279</v>
+        <v>5.946654796600342</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.233901500701904</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>0.2465873062610626</v>
       </c>
       <c r="E1">
-        <v>1.069613693407033</v>
+        <v>0.3340835273265839</v>
       </c>
     </row>
   </sheetData>
